--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Epha5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H2">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I2">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J2">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N2">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.005218504968444444</v>
+        <v>0.2413023791244444</v>
       </c>
       <c r="R2">
-        <v>0.04696654471599999</v>
+        <v>2.17172141212</v>
       </c>
       <c r="S2">
-        <v>0.001171860355205468</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="T2">
-        <v>0.001171860355205468</v>
+        <v>0.90423664136871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -602,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.33198466666667</v>
+        <v>1.394651</v>
       </c>
       <c r="H3">
-        <v>54.995954</v>
+        <v>4.183953000000001</v>
       </c>
       <c r="I3">
-        <v>0.8831875137004506</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J3">
-        <v>0.8831875137004505</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N3">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O3">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.927774370710666</v>
+        <v>0.01584555977833333</v>
       </c>
       <c r="R3">
-        <v>35.34996933639599</v>
+        <v>0.142610038005</v>
       </c>
       <c r="S3">
-        <v>0.8820156533452451</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="T3">
-        <v>0.8820156533452449</v>
+        <v>0.05937834432696559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.394651</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H4">
-        <v>4.183953000000001</v>
+        <v>1.873951</v>
       </c>
       <c r="I4">
-        <v>0.06719067092662021</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J4">
-        <v>0.06719067092662019</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N4">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0003970106513333333</v>
+        <v>0.007097068870555555</v>
       </c>
       <c r="R4">
-        <v>0.003573095862000001</v>
+        <v>0.06387361983499999</v>
       </c>
       <c r="S4">
-        <v>8.915217015315315E-05</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="T4">
-        <v>8.915217015315313E-05</v>
+        <v>0.02659497076804196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -720,300 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.394651</v>
+        <v>0.229944</v>
       </c>
       <c r="H5">
-        <v>4.183953000000001</v>
+        <v>0.689832</v>
       </c>
       <c r="I5">
-        <v>0.06719067092662021</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J5">
-        <v>0.06719067092662019</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N5">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O5">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.298815133958</v>
+        <v>0.00261254708</v>
       </c>
       <c r="R5">
-        <v>2.689336205622</v>
+        <v>0.02351292372</v>
       </c>
       <c r="S5">
-        <v>0.06710151875646705</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="T5">
-        <v>0.06710151875646704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9925623333333333</v>
-      </c>
-      <c r="H6">
-        <v>2.977687</v>
-      </c>
-      <c r="I6">
-        <v>0.0478190809838148</v>
-      </c>
-      <c r="J6">
-        <v>0.04781908098381479</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.0002846666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.0008539999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="P6">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="Q6">
-        <v>0.0002825494108888888</v>
-      </c>
-      <c r="R6">
-        <v>0.002542944698</v>
-      </c>
-      <c r="S6">
-        <v>6.344891017820518E-05</v>
-      </c>
-      <c r="T6">
-        <v>6.344891017820516E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9925623333333333</v>
-      </c>
-      <c r="H7">
-        <v>2.977687</v>
-      </c>
-      <c r="I7">
-        <v>0.0478190809838148</v>
-      </c>
-      <c r="J7">
-        <v>0.04781908098381479</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.214258</v>
-      </c>
-      <c r="N7">
-        <v>0.642774</v>
-      </c>
-      <c r="O7">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P7">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q7">
-        <v>0.2126644204153333</v>
-      </c>
-      <c r="R7">
-        <v>1.913979783738</v>
-      </c>
-      <c r="S7">
-        <v>0.0477556320736366</v>
-      </c>
-      <c r="T7">
-        <v>0.04775563207363658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.112256</v>
-      </c>
-      <c r="I8">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J8">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0002846666666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.0008539999999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="P8">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="Q8">
-        <v>1.065184711111111E-05</v>
-      </c>
-      <c r="R8">
-        <v>9.586662399999999E-05</v>
-      </c>
-      <c r="S8">
-        <v>2.391964253114783E-06</v>
-      </c>
-      <c r="T8">
-        <v>2.391964253114783E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03741866666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.112256</v>
-      </c>
-      <c r="I9">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="J9">
-        <v>0.001802734389114475</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.214258</v>
-      </c>
-      <c r="N9">
-        <v>0.642774</v>
-      </c>
-      <c r="O9">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P9">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q9">
-        <v>0.008017248682666666</v>
-      </c>
-      <c r="R9">
-        <v>0.07215523814399999</v>
-      </c>
-      <c r="S9">
-        <v>0.00180034242486136</v>
-      </c>
-      <c r="T9">
-        <v>0.00180034242486136</v>
+        <v>0.009790043536282392</v>
       </c>
     </row>
   </sheetData>
